--- a/Student Files/CH4-Data.xlsx
+++ b/Student Files/CH4-Data.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel OER\OER Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gself\Desktop\Excel 365 Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859E036F-F2E7-448F-A61A-F2A94A213645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10908"/>
+    <workbookView xWindow="32160" yWindow="615" windowWidth="16485" windowHeight="14340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock Trend" sheetId="2" r:id="rId1"/>
     <sheet name="Grade Distribution" sheetId="1" r:id="rId2"/>
-    <sheet name="Enrolment Statistics" sheetId="3" r:id="rId3"/>
+    <sheet name="Enrollment Statistics" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -233,7 +244,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -543,6 +554,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -578,6 +606,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,26 +798,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
     <col min="34" max="34" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="20" t="s">
         <v>52</v>
       </c>
@@ -786,7 +831,7 @@
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
     </row>
-    <row r="2" spans="1:34" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="19" t="s">
         <v>35</v>
       </c>
@@ -800,7 +845,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:34" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>59</v>
@@ -816,7 +861,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:34" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
@@ -846,7 +891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42492</v>
       </c>
@@ -878,7 +923,7 @@
         <v>40340</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42461</v>
       </c>
@@ -912,7 +957,7 @@
         <v>40347</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42430</v>
       </c>
@@ -946,7 +991,7 @@
         <v>40354</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42401</v>
       </c>
@@ -980,7 +1025,7 @@
         <v>40361</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42373</v>
       </c>
@@ -1014,7 +1059,7 @@
         <v>40368</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42339</v>
       </c>
@@ -1048,7 +1093,7 @@
         <v>40375</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42310</v>
       </c>
@@ -1082,7 +1127,7 @@
         <v>40382</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42278</v>
       </c>
@@ -1116,7 +1161,7 @@
         <v>40389</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42248</v>
       </c>
@@ -1150,7 +1195,7 @@
         <v>40396</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42219</v>
       </c>
@@ -1184,7 +1229,7 @@
         <v>40403</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42186</v>
       </c>
@@ -1218,7 +1263,7 @@
         <v>40410</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42156</v>
       </c>
@@ -1252,7 +1297,7 @@
         <v>40417</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42125</v>
       </c>
@@ -1286,7 +1331,7 @@
         <v>40424</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42095</v>
       </c>
@@ -1320,7 +1365,7 @@
         <v>40431</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42065</v>
       </c>
@@ -1354,7 +1399,7 @@
         <v>40438</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42037</v>
       </c>
@@ -1388,7 +1433,7 @@
         <v>40445</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42006</v>
       </c>
@@ -1422,7 +1467,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41974</v>
       </c>
@@ -1456,7 +1501,7 @@
         <v>40459</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>41946</v>
       </c>
@@ -1490,7 +1535,7 @@
         <v>40466</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41913</v>
       </c>
@@ -1524,7 +1569,7 @@
         <v>40473</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41884</v>
       </c>
@@ -1558,7 +1603,7 @@
         <v>40480</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41852</v>
       </c>
@@ -1592,7 +1637,7 @@
         <v>40487</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41821</v>
       </c>
@@ -1626,7 +1671,7 @@
         <v>40494</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41792</v>
       </c>
@@ -1660,18 +1705,18 @@
         <v>40501</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:D54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D54">
     <sortCondition ref="B3:B54"/>
   </sortState>
   <mergeCells count="3">
@@ -1680,29 +1725,29 @@
     <mergeCell ref="B1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A51" r:id="rId1"/>
+    <hyperlink ref="A51" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
@@ -1712,7 +1757,7 @@
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
     </row>
-    <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1768,7 @@
       </c>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1741,7 +1786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +1800,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -1769,7 +1814,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1783,7 +1828,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1797,7 +1842,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1856,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
@@ -1821,7 +1866,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
@@ -1834,21 +1879,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>56</v>
       </c>
@@ -1856,7 +1901,7 @@
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
     </row>
-    <row r="2" spans="1:4" ht="52.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>50</v>
       </c>
@@ -1870,7 +1915,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1884,7 +1929,7 @@
         <v>4751</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1898,7 +1943,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1912,7 +1957,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1926,7 +1971,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1943,8 +1988,8 @@
         <v>7302</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>56</v>
       </c>
@@ -1952,7 +1997,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" spans="1:4" ht="52.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>55</v>
       </c>
@@ -1966,7 +2011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1980,7 +2025,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1994,7 +2039,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2011,13 +2056,13 @@
         <v>7302</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>62</v>
       </c>
@@ -2028,7 +2073,7 @@
     <mergeCell ref="A10:D10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1"/>
+    <hyperlink ref="A26" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
